--- a/Presentations/LTERttImages/OverviewEvolution.xlsx
+++ b/Presentations/LTERttImages/OverviewEvolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="sigScoreGroups" sheetId="1" r:id="rId1"/>
@@ -742,11 +742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1640847232"/>
-        <c:axId val="-891022032"/>
+        <c:axId val="1639653936"/>
+        <c:axId val="1639655984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1640847232"/>
+        <c:axId val="1639653936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-891022032"/>
+        <c:crossAx val="1639655984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -797,7 +797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-891022032"/>
+        <c:axId val="1639655984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1640847232"/>
+        <c:crossAx val="1639653936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,7 +954,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1081,11 +1080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1022812320"/>
-        <c:axId val="1642010480"/>
+        <c:axId val="-545436352"/>
+        <c:axId val="-545434032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1022812320"/>
+        <c:axId val="-545436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1642010480"/>
+        <c:crossAx val="-545434032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1642010480"/>
+        <c:axId val="-545434032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022812320"/>
+        <c:crossAx val="-545436352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1261,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1389,11 +1387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-383957728"/>
-        <c:axId val="-383955408"/>
+        <c:axId val="-545409376"/>
+        <c:axId val="-545407056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-383957728"/>
+        <c:axId val="-545409376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383955408"/>
+        <c:crossAx val="-545407056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1444,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-383955408"/>
+        <c:axId val="-545407056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383957728"/>
+        <c:crossAx val="-545409376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,11 +1695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1641259696"/>
-        <c:axId val="1641249696"/>
+        <c:axId val="-545383744"/>
+        <c:axId val="-545381424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1641259696"/>
+        <c:axId val="-545383744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641249696"/>
+        <c:crossAx val="-545381424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1641249696"/>
+        <c:axId val="-545381424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641259696"/>
+        <c:crossAx val="-545383744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,7 +1885,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Completeness of the Identification Profile in the LTER Recommendation</a:t>
+              <a:t>Completeness of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 11 Concepts in the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Identification Profile of the LTER Recommendation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1986,9 +1992,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2002,51 +2006,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2093,16 +2052,30 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2124,30 +2097,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$11:$R$11</c:f>
+              <c:f>IDspiralCounts!$G$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60.0</c:v>
                 </c:pt>
@@ -2167,21 +2125,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2267,9 +2210,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2283,51 +2224,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2373,7 +2269,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2394,10 +2289,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2419,30 +2314,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$12:$R$12</c:f>
+              <c:f>IDspiralCounts!$G$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>79.0</c:v>
                 </c:pt>
@@ -2462,21 +2342,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2542,9 +2407,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2558,51 +2421,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2655,10 +2473,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2680,30 +2498,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$13:$R$13</c:f>
+              <c:f>IDspiralCounts!$G$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>146.0</c:v>
                 </c:pt>
@@ -2723,21 +2526,6 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2772,6 +2560,27 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.00404280599385773"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
@@ -2819,51 +2628,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2931,10 +2695,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2956,30 +2720,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$14:$R$14</c:f>
+              <c:f>IDspiralCounts!$G$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>89.0</c:v>
                 </c:pt>
@@ -3000,21 +2749,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,9 +2813,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3095,51 +2827,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3192,10 +2879,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -3217,30 +2904,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$15:$R$15</c:f>
+              <c:f>IDspiralCounts!$G$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>47.0</c:v>
                 </c:pt>
@@ -3260,21 +2932,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3360,9 +3017,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3376,51 +3031,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3466,7 +3076,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3487,10 +3096,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -3512,30 +3121,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$16:$R$16</c:f>
+              <c:f>IDspiralCounts!$G$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>70.0</c:v>
                 </c:pt>
@@ -3555,21 +3149,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3637,9 +3216,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3653,51 +3230,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3764,10 +3296,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -3789,30 +3321,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$17:$R$17</c:f>
+              <c:f>IDspiralCounts!$G$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23.0</c:v>
                 </c:pt>
@@ -3832,21 +3349,6 @@
                   <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3883,6 +3385,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00292850988539276"/>
+                  <c:y val="-1.48234507357108E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
@@ -3937,51 +3459,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4021,16 +3498,30 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -4052,30 +3543,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$18:$R$18</c:f>
+              <c:f>IDspiralCounts!$G$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>73.0</c:v>
                 </c:pt>
@@ -4096,21 +3572,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,9 +3638,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4193,51 +3652,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -4291,10 +3705,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -4316,30 +3730,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$19:$R$19</c:f>
+              <c:f>IDspiralCounts!$G$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>183.0</c:v>
                 </c:pt>
@@ -4359,21 +3758,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4411,10 +3795,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -4436,30 +3820,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$20:$R$20</c:f>
+              <c:f>IDspiralCounts!$G$20:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>90.0</c:v>
                 </c:pt>
@@ -4479,21 +3848,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4561,9 +3915,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4577,51 +3929,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -4674,10 +3981,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -4699,30 +4006,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$21:$R$21</c:f>
+              <c:f>IDspiralCounts!$G$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -4742,21 +4034,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4844,9 +4121,7 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4860,51 +4135,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -4950,17 +4180,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$R$10</c:f>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -4982,30 +4225,15 @@
                 <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$22:$R$22</c:f>
+              <c:f>IDspiralCounts!$G$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>90.0</c:v>
                 </c:pt>
@@ -5027,21 +4255,6 @@
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5056,11 +4269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="987036912"/>
-        <c:axId val="987038272"/>
+        <c:axId val="-545521280"/>
+        <c:axId val="-545518960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="987036912"/>
+        <c:axId val="-545521280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5103,7 +4316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987038272"/>
+        <c:crossAx val="-545518960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5111,7 +4324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="987038272"/>
+        <c:axId val="-545518960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +4374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987036912"/>
+        <c:crossAx val="-545521280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5245,7 +4458,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5355,11 +4567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-822023664"/>
-        <c:axId val="-822021616"/>
+        <c:axId val="1639632992"/>
+        <c:axId val="1639635040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-822023664"/>
+        <c:axId val="1639632992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +4614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-822021616"/>
+        <c:crossAx val="1639635040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5410,7 +4622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-822021616"/>
+        <c:axId val="1639635040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5460,7 +4672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-822023664"/>
+        <c:crossAx val="1639632992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5474,7 +4686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5567,7 +4778,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5688,11 +4898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-85221840"/>
-        <c:axId val="-85524976"/>
+        <c:axId val="530845184"/>
+        <c:axId val="530847504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-85221840"/>
+        <c:axId val="530845184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5735,7 +4945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85524976"/>
+        <c:crossAx val="530847504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5743,7 +4953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-85524976"/>
+        <c:axId val="530847504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-85221840"/>
+        <c:crossAx val="530845184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5868,7 +5078,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5989,11 +5198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-819419984"/>
-        <c:axId val="987992288"/>
+        <c:axId val="530668864"/>
+        <c:axId val="530638112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-819419984"/>
+        <c:axId val="530668864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,7 +5245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987992288"/>
+        <c:crossAx val="530638112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6044,7 +5253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="987992288"/>
+        <c:axId val="530638112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,7 +5303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-819419984"/>
+        <c:crossAx val="530668864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6169,7 +5378,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6290,11 +5498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1610124864"/>
-        <c:axId val="1610126640"/>
+        <c:axId val="530649312"/>
+        <c:axId val="530651632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1610124864"/>
+        <c:axId val="530649312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,7 +5545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610126640"/>
+        <c:crossAx val="530651632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6345,7 +5553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610126640"/>
+        <c:axId val="530651632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,7 +5603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610124864"/>
+        <c:crossAx val="530649312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6470,7 +5678,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6597,11 +5804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="988150048"/>
-        <c:axId val="988152368"/>
+        <c:axId val="1639647392"/>
+        <c:axId val="1639612496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="988150048"/>
+        <c:axId val="1639647392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +5851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988152368"/>
+        <c:crossAx val="1639612496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6652,7 +5859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="988152368"/>
+        <c:axId val="1639612496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +5909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988150048"/>
+        <c:crossAx val="1639647392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6777,7 +5984,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6904,11 +6110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1345633424"/>
-        <c:axId val="182794288"/>
+        <c:axId val="1639595152"/>
+        <c:axId val="1639597472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1345633424"/>
+        <c:axId val="1639595152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6951,7 +6157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182794288"/>
+        <c:crossAx val="1639597472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6959,7 +6165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182794288"/>
+        <c:axId val="1639597472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7009,7 +6215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345633424"/>
+        <c:crossAx val="1639595152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7084,7 +6290,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7211,11 +6416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-623714752"/>
-        <c:axId val="-623712704"/>
+        <c:axId val="530602624"/>
+        <c:axId val="530604944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-623714752"/>
+        <c:axId val="530602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7258,7 +6463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-623712704"/>
+        <c:crossAx val="530604944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7266,7 +6471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-623712704"/>
+        <c:axId val="530604944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7316,7 +6521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-623714752"/>
+        <c:crossAx val="530602624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7391,7 +6596,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7518,11 +6722,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1022868464"/>
-        <c:axId val="1022761136"/>
+        <c:axId val="-546135856"/>
+        <c:axId val="-545496816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1022868464"/>
+        <c:axId val="-546135856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7565,7 +6769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022761136"/>
+        <c:crossAx val="-545496816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7573,7 +6777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1022761136"/>
+        <c:axId val="-545496816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7624,7 +6828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022868464"/>
+        <c:crossAx val="-546135856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14905,7 +14109,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15062,7 +14266,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669769" cy="6283931"/>
+    <xdr:ext cx="8673353" cy="6282765"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -20632,31 +19836,31 @@
     </row>
     <row r="56" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:P56" ca="1" si="3">SUM(J3:J55)</f>
         <v>183</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f ca="1">SUM(P3:P55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -22915,31 +22119,31 @@
     </row>
     <row r="56" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:P56" ca="1" si="3">SUM(J3:J55)</f>
         <v>90</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>130</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f ca="1">SUM(P3:P55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -25030,31 +24234,31 @@
     </row>
     <row r="56" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:P56" ca="1" si="3">SUM(J3:J55)</f>
         <v>16</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>212</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f ca="1">SUM(P3:P55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -25072,8 +24276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56:P56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27628,31 +26832,31 @@
     </row>
     <row r="56" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:P56" ca="1" si="3">SUM(J3:J55)</f>
         <v>90</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>130</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f ca="1">SUM(P3:P55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -28370,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:N18" ca="1" si="2">IF($C4=L$2,$B4,0)</f>
+        <f t="shared" ref="L4:N18" ca="1" si="2">IF($C4=L$2,$B4,0)</f>
         <v>72</v>
       </c>
       <c r="M4">
@@ -30496,7 +29700,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:N51" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
+        <f t="shared" ref="J4:N50" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
         <v>0</v>
       </c>
       <c r="K4">
@@ -34304,7 +33508,7 @@
         <v>146</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:O51" ca="1" si="2">SUM(K3:K50)</f>
+        <f t="shared" ref="K51:N51" ca="1" si="2">SUM(K3:K50)</f>
         <v>47</v>
       </c>
       <c r="L51">
@@ -34453,7 +33657,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:P51" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
+        <f t="shared" ref="J4:P50" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
         <v>0</v>
       </c>
       <c r="K4">
@@ -36530,7 +35734,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:N51" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
+        <f t="shared" ref="J4:N50" ca="1" si="1">IF($C4=J$2,$B4,0)</f>
         <v>5</v>
       </c>
       <c r="K4">
@@ -42509,7 +41713,7 @@
         <v>2</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:O55" ca="1" si="3">IF($C53=J$2,$B53,0)</f>
+        <f t="shared" ref="J53:J55" ca="1" si="3">IF($C53=J$2,$B53,0)</f>
         <v>0</v>
       </c>
       <c r="K53">
@@ -42629,27 +41833,27 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:O56" ca="1" si="4">SUM(J3:J55)</f>
         <v>23</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>111</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="P56">
@@ -45223,31 +44427,31 @@
     </row>
     <row r="56" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J56">
-        <f ca="1">SUM(J3:J55)</f>
+        <f t="shared" ref="J56:P56" ca="1" si="3">SUM(J3:J55)</f>
         <v>73</v>
       </c>
       <c r="K56">
-        <f ca="1">SUM(K3:K55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="L56">
-        <f ca="1">SUM(L3:L55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="M56">
-        <f ca="1">SUM(M3:M55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>112</v>
       </c>
       <c r="N56">
-        <f ca="1">SUM(N3:N55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
       <c r="O56">
-        <f ca="1">SUM(O3:O55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="P56">
-        <f ca="1">SUM(P3:P55)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="Q56">

--- a/Presentations/LTERttImages/OverviewEvolution.xlsx
+++ b/Presentations/LTERttImages/OverviewEvolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="sigScoreGroups" sheetId="1" r:id="rId1"/>
@@ -3612,6 +3612,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4800"/>
+              <a:t>Signature Score Counts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3795,7 +3820,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3824,20 +3849,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3853,7 +3864,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3933,7 +3944,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3946,17 +3957,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Completeness of the</a:t>
+              <a:rPr lang="en-US" sz="4000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LTER’s Collection Evolution of LTER Identification</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 11 Concepts in the</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Identification Profile of the LTER Recommendation</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3974,7 +3982,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4011,7 +4019,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4024,45 +4032,57 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4079,7 +4099,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4094,6 +4114,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4199,7 +4220,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4212,19 +4233,8 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="-0.00404205584052403"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -4232,45 +4242,48 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4287,7 +4300,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4302,959 +4315,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2008</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.00404280599385773"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$14:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$15:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.00808411168104806"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$16:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5315,27 +4376,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDspiralCounts!$G$17:$M$17</c:f>
+              <c:f>IDspiralCounts!$G$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -5346,25 +4407,23 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDspiralCounts!$F$18</c:f>
+              <c:f>IDspiralCounts!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5375,19 +4434,8 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.00292850988539276"/>
-                  <c:y val="-1.48234507357108E-16"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -5395,45 +4443,48 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5450,7 +4501,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5465,6 +4516,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5474,6 +4526,194 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5524,6 +4764,850 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>IDspiralCounts!$G$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.119005246852598"/>
+                      <c:h val="0.0363482667139407"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>IDspiralCounts!$G$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5569,7 +5653,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -5587,42 +5671,54 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5639,7 +5735,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5746,7 +5842,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -5759,137 +5855,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IDspiralCounts!$G$20:$M$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IDspiralCounts!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5906,7 +5924,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5921,6 +5939,210 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$G$20:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6012,7 +6234,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -6027,19 +6249,8 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="-0.0181892512823581"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -6047,45 +6258,48 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6102,7 +6316,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -6117,6 +6331,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6126,6 +6341,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6247,7 +6463,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6291,7 +6507,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6347,359 +6563,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>sigScoreGroups!$A$1:$W$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>sigScoreGroups!$A$57:$W$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="996508368"/>
-        <c:axId val="996510688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="996508368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="996510688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="996510688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="996508368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9413,46 +9276,6 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13047,509 +12870,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18035,7 +17355,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18057,7 +17377,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18403,36 +17723,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.47265</cdr:x>
-      <cdr:y>0.56346</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:graphicFrame macro="">
-      <cdr:nvGraphicFramePr>
-        <cdr:cNvPr id="2" name="Chart 1"/>
-        <cdr:cNvGraphicFramePr/>
-      </cdr:nvGraphicFramePr>
-      <cdr:xfrm>
-        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
-        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
-      </cdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </cdr:graphicFrame>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Presentations/LTERttImages/OverviewEvolution.xlsx
+++ b/Presentations/LTERttImages/OverviewEvolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="sigScoreGroups" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2015" sheetId="12" r:id="rId12"/>
     <sheet name="2016" sheetId="13" r:id="rId13"/>
     <sheet name="IdLevelCompletenessBar" sheetId="17" r:id="rId14"/>
-    <sheet name="IDspiralCounts" sheetId="14" r:id="rId15"/>
-    <sheet name="signaturescoreCount" sheetId="16" r:id="rId16"/>
-    <sheet name="IDspiralCompleteness" sheetId="15" r:id="rId17"/>
+    <sheet name="idSpiralCompletenessAxisCorrect" sheetId="18" r:id="rId15"/>
+    <sheet name="IDspiralCounts" sheetId="14" r:id="rId16"/>
+    <sheet name="signaturescoreCount" sheetId="16" r:id="rId17"/>
+    <sheet name="IDspiralCompleteness" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -3631,6 +3632,2932 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="4000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LTER’s Collection Evolution of LTER Identification</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$33:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$34:$V$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$35:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$36:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$38:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0495562223168806"/>
+                  <c:y val="-0.0356660504388097"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$39:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$40:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$41:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$42:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$43:$V$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDspiralCounts!$O$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDspiralCounts!$P$44:$V$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1115737024"/>
+        <c:axId val="995420032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1115737024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t># Concepts Missing</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="995420032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="995420032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t># Records</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1115737024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="4800"/>
               <a:t>Signature Score Counts</a:t>
             </a:r>
@@ -3923,7 +6850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5413,169 +8340,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.119005246852598"/>
-                      <c:h val="0.0363482667139407"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>IDspiralCounts!$G$10:$M$10</c:f>
@@ -5666,105 +8430,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>IDspiralCounts!$G$10:$M$10</c:f>
@@ -5855,119 +8520,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>IDspiralCounts!$G$10:$M$10</c:f>
@@ -6058,105 +8610,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>IDspiralCounts!$G$10:$M$10</c:f>
@@ -6247,119 +8700,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>IDspiralCounts!$G$10:$M$10</c:f>
@@ -6441,6 +8781,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t># Missing Concepts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6492,13 +8888,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t># Records</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9276,6 +11733,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12205,6 +14702,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12707,7 +15720,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17377,7 +20390,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17699,6 +20723,33 @@
 </file>
 
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669769" cy="6283931"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -30358,10 +33409,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F10:S22"/>
+  <dimension ref="F10:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30673,7 +33724,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -30718,7 +33769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -30763,7 +33814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -30808,7 +33859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F20">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -30853,7 +33904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -30898,7 +33949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -30941,6 +33992,341 @@
       </c>
       <c r="S22" s="1">
         <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>2005</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>19</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+      <c r="T33">
+        <v>127</v>
+      </c>
+      <c r="U33">
+        <v>21</v>
+      </c>
+      <c r="V33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>2006</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>41</v>
+      </c>
+      <c r="T34">
+        <v>59</v>
+      </c>
+      <c r="U34">
+        <v>71</v>
+      </c>
+      <c r="V34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>2007</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>27</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>22</v>
+      </c>
+      <c r="U35">
+        <v>47</v>
+      </c>
+      <c r="V35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>2008</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>69</v>
+      </c>
+      <c r="T36">
+        <v>14</v>
+      </c>
+      <c r="U36">
+        <v>53</v>
+      </c>
+      <c r="V36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>2009</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>21</v>
+      </c>
+      <c r="T37">
+        <v>81</v>
+      </c>
+      <c r="U37">
+        <v>101</v>
+      </c>
+      <c r="V37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>2010</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>14</v>
+      </c>
+      <c r="S38">
+        <v>94</v>
+      </c>
+      <c r="T38">
+        <v>54</v>
+      </c>
+      <c r="U38">
+        <v>17</v>
+      </c>
+      <c r="V38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>2011</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
+      <c r="R39">
+        <v>20</v>
+      </c>
+      <c r="S39">
+        <v>111</v>
+      </c>
+      <c r="T39">
+        <v>49</v>
+      </c>
+      <c r="U39">
+        <v>33</v>
+      </c>
+      <c r="V39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>2012</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>112</v>
+      </c>
+      <c r="T40">
+        <v>24</v>
+      </c>
+      <c r="U40">
+        <v>30</v>
+      </c>
+      <c r="V40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>2013</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>16</v>
+      </c>
+      <c r="T41">
+        <v>16</v>
+      </c>
+      <c r="U41">
+        <v>35</v>
+      </c>
+      <c r="V41">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>2014</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>25</v>
+      </c>
+      <c r="U42">
+        <v>130</v>
+      </c>
+      <c r="V42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>2015</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>212</v>
+      </c>
+      <c r="U43">
+        <v>15</v>
+      </c>
+      <c r="V43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="15:22" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>2016</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>38</v>
+      </c>
+      <c r="T44">
+        <v>60</v>
+      </c>
+      <c r="U44">
+        <v>66</v>
+      </c>
+      <c r="V44">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Presentations/LTERttImages/OverviewEvolution.xlsx
+++ b/Presentations/LTERttImages/OverviewEvolution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="sigScoreGroups" sheetId="1" r:id="rId1"/>
